--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E200CC26-80B6-4937-B537-7A9D9AAA7D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5448FB0C-87C7-4B0B-9AF1-41A10080518F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="1545" windowWidth="21600" windowHeight="14580" xr2:uid="{7B8BB36E-7950-40E0-A31F-2632660FED51}"/>
+    <workbookView xWindow="3870" yWindow="720" windowWidth="21600" windowHeight="14580" xr2:uid="{7B8BB36E-7950-40E0-A31F-2632660FED51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>학점</t>
+    <t>grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>학습시간</t>
+    <t>studytime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연봉</t>
+    <t>salary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20년후 연봉</t>
+    <t>20ysalary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,10 +95,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -418,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0230D5D-3C8C-4C24-B945-D1F89B56F795}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -442,708 +439,708 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>3.49</v>
       </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>2.8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>4.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>3.29</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>2.7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>4.2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>2.52</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>2.4700000000000002</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>3.9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>2.93</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>2.5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>4.2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>2.16</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>2.4</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>3.7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>2.99</v>
       </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>2.52</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>3.8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>4.0199999999999996</v>
       </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
         <v>2.8</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>2.65</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>2.48</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>3.6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>2.9</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>5.7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>2.82</v>
       </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>2.4</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>3.43</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>2.7</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>2.69</v>
       </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
         <v>2.5</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>3.6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>4.46</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>4</v>
       </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>2.19</v>
       </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
         <v>2.4</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>3.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>3.16</v>
       </c>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>2.6</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>4.3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>2.83</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>2.5499999999999998</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>3.7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>2.4900000000000002</v>
       </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>3.7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>4.47</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>6</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>3.2</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>6.7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
         <v>2.4</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>3.4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>2.4</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>3.2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
         <v>2.74</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>2.11</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>2.4</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>3.7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>4.1900000000000004</v>
       </c>
-      <c r="B24" s="1">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
         <v>3.6</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>5.2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>4.4800000000000004</v>
       </c>
-      <c r="B25" s="1">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
         <v>3.2</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>2.34</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>2.46</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>3.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>3.2</v>
       </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
         <v>2.79</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>4.3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>3.54</v>
       </c>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
         <v>4.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>3.63</v>
       </c>
-      <c r="B29" s="1">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
         <v>2.88</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>4.7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>3.95</v>
       </c>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>4.29</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>3.3</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>5.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>2.48</v>
       </c>
-      <c r="B32" s="1">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
         <v>2.6</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>3.6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>3.11</v>
       </c>
-      <c r="B33" s="1">
-        <v>3</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
         <v>2.8</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>4.34</v>
       </c>
-      <c r="B34" s="1">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
         <v>5.4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>4.42</v>
       </c>
-      <c r="B35" s="1">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1">
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
         <v>3.2</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>6.3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>2.95</v>
       </c>
-      <c r="B36" s="1">
-        <v>2</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
         <v>2.78</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>4.2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>3.11</v>
       </c>
-      <c r="B37" s="1">
-        <v>2</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
         <v>2.87</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>3.06</v>
       </c>
-      <c r="B38" s="1">
-        <v>2</v>
-      </c>
-      <c r="C38" s="1">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
         <v>2.7</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>4.3600000000000003</v>
       </c>
-      <c r="B39" s="1">
-        <v>3</v>
-      </c>
-      <c r="C39" s="1">
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
         <v>3.15</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>6.2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>2.93</v>
       </c>
-      <c r="B40" s="1">
-        <v>2</v>
-      </c>
-      <c r="C40" s="1">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
         <v>2.6</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>4.5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>3.43</v>
       </c>
-      <c r="B41" s="1">
-        <v>3</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
         <v>2.82</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>4.3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>2.87</v>
       </c>
-      <c r="B42" s="1">
-        <v>2</v>
-      </c>
-      <c r="C42" s="1">
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
         <v>2.6</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>3.69</v>
       </c>
-      <c r="B43" s="1">
-        <v>3</v>
-      </c>
-      <c r="C43" s="1">
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
         <v>2.88</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>4.7</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>3.96</v>
       </c>
-      <c r="B44" s="1">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1">
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
         <v>3.1</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>2.4700000000000002</v>
       </c>
-      <c r="B45" s="1">
-        <v>2</v>
-      </c>
-      <c r="C45" s="1">
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
         <v>2.48</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>3.6</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>2.1800000000000002</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>2.4</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>3.8</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>2.38</v>
       </c>
-      <c r="B47" s="1">
-        <v>2</v>
-      </c>
-      <c r="C47" s="1">
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
         <v>2.48</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>3.9</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="A48">
         <v>2.14</v>
       </c>
-      <c r="B48" s="1">
-        <v>2</v>
-      </c>
-      <c r="C48" s="1">
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
         <v>2.4300000000000002</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>3.7</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="A49">
         <v>2.93</v>
       </c>
-      <c r="B49" s="1">
-        <v>3</v>
-      </c>
-      <c r="C49" s="1">
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
         <v>2.6</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>4.5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>3.26</v>
       </c>
-      <c r="B50" s="1">
-        <v>2</v>
-      </c>
-      <c r="C50" s="1">
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
         <v>2.9</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>4.7</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="A51">
         <v>3.01</v>
       </c>
-      <c r="B51" s="1">
-        <v>3</v>
-      </c>
-      <c r="C51" s="1">
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
         <v>2.7</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <f t="shared" ref="A3:A66" ca="1" si="0">ROUND(RAND()*(4.5-2)+2,2)</f>
+        <f t="shared" ref="A52:A66" ca="1" si="0">ROUND(RAND()*(4.5-2)+2,2)</f>
         <v>4.41</v>
       </c>
       <c r="B52">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5448FB0C-87C7-4B0B-9AF1-41A10080518F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9738C4DC-ABDE-4FF0-A82E-031218E80BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="720" windowWidth="21600" windowHeight="14580" xr2:uid="{7B8BB36E-7950-40E0-A31F-2632660FED51}"/>
+    <workbookView xWindow="3060" yWindow="1020" windowWidth="21600" windowHeight="14580" xr2:uid="{7B8BB36E-7950-40E0-A31F-2632660FED51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20ysalary</t>
+    <t>10ysalary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
